--- a/t1_confection/A2_Structure_Lists.xlsx
+++ b/t1_confection/A2_Structure_Lists.xlsx
@@ -547,28 +547,28 @@
     <t>E6TRNOMOT</t>
   </si>
   <si>
+    <t>CO2e_Freight</t>
+  </si>
+  <si>
+    <t>CO2e_HeavyCargo</t>
+  </si>
+  <si>
     <t>CO2e_sources</t>
   </si>
   <si>
+    <t>CO2e</t>
+  </si>
+  <si>
     <t>Health</t>
   </si>
   <si>
+    <t>Accidents</t>
+  </si>
+  <si>
     <t>CO2e_LightCargo</t>
   </si>
   <si>
-    <t>CO2e_Freight</t>
-  </si>
-  <si>
     <t>Congestion</t>
-  </si>
-  <si>
-    <t>Accidents</t>
-  </si>
-  <si>
-    <t>CO2e</t>
-  </si>
-  <si>
-    <t>CO2e_HeavyCargo</t>
   </si>
   <si>
     <t>CR</t>
@@ -1820,238 +1820,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BAD73B84EC2FBA4AB6031CFB79C3D0E0" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="371947e8e2760f0f8e8f59c32e4ad2a0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c4f98862-adfd-4d9c-a945-852f80f0eb51" xmlns:ns3="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a059f82d0b353b49693c069f8347eedf" ns2:_="" ns3:_="">
-    <xsd:import namespace="c4f98862-adfd-4d9c-a945-852f80f0eb51"/>
-    <xsd:import namespace="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c4f98862-adfd-4d9c-a945-852f80f0eb51" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FF96325-BFBF-41CB-8CD6-C7311FC5346F}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2158B80D-3802-4F36-8806-D20CB607E0E1}"/>
 </file>
--- a/t1_confection/A2_Structure_Lists.xlsx
+++ b/t1_confection/A2_Structure_Lists.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="481">
   <si>
     <t>Year</t>
   </si>
@@ -37,6 +37,27 @@
     <t>Region</t>
   </si>
   <si>
+    <t>EXTT_CRU</t>
+  </si>
+  <si>
+    <t>EXTT_LPG</t>
+  </si>
+  <si>
+    <t>DIST_FIR</t>
+  </si>
+  <si>
+    <t>DIST_BIM</t>
+  </si>
+  <si>
+    <t>DIST_BGS</t>
+  </si>
+  <si>
+    <t>DIST_CRU</t>
+  </si>
+  <si>
+    <t>DIST_NGS</t>
+  </si>
+  <si>
     <t>DIST_DSL</t>
   </si>
   <si>
@@ -49,6 +70,18 @@
     <t>DIST_FOI</t>
   </si>
   <si>
+    <t>DIST_COK</t>
+  </si>
+  <si>
+    <t>DIST_KER</t>
+  </si>
+  <si>
+    <t>DIST_COA</t>
+  </si>
+  <si>
+    <t>IMP_ELE</t>
+  </si>
+  <si>
     <t>PPHDAM</t>
   </si>
   <si>
@@ -61,88 +94,523 @@
     <t>PPWNDON</t>
   </si>
   <si>
+    <t>PPWNDOFF</t>
+  </si>
+  <si>
     <t>PPPVT</t>
   </si>
   <si>
     <t>PPPVTHYD</t>
   </si>
   <si>
+    <t>PPPVTS</t>
+  </si>
+  <si>
     <t>PPPVD</t>
   </si>
   <si>
     <t>PPPVDS</t>
   </si>
   <si>
-    <t>PPBIO</t>
-  </si>
-  <si>
-    <t>DIST_BM</t>
-  </si>
-  <si>
-    <t>DIST_BF</t>
+    <t>SOIALL</t>
+  </si>
+  <si>
+    <t>IMPRIC</t>
+  </si>
+  <si>
+    <t>IMPBAN</t>
+  </si>
+  <si>
+    <t>IMPSGC</t>
+  </si>
+  <si>
+    <t>IMPCOC</t>
+  </si>
+  <si>
+    <t>IMPTRVEG</t>
+  </si>
+  <si>
+    <t>IMPCAF</t>
+  </si>
+  <si>
+    <t>IMPLEG</t>
+  </si>
+  <si>
+    <t>IMPROT</t>
+  </si>
+  <si>
+    <t>IMPFRT</t>
+  </si>
+  <si>
+    <t>IMPCER</t>
+  </si>
+  <si>
+    <t>IMPOTP</t>
+  </si>
+  <si>
+    <t>IMPLEC</t>
+  </si>
+  <si>
+    <t>IMPCARAVI</t>
+  </si>
+  <si>
+    <t>IMPCARBOV</t>
+  </si>
+  <si>
+    <t>IMPOTRCARPRO</t>
+  </si>
+  <si>
+    <t>IMPCARPOR</t>
+  </si>
+  <si>
+    <t>IMPOTRCAR</t>
+  </si>
+  <si>
+    <t>INORG_RCY_OS</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>COMPOST</t>
+  </si>
+  <si>
+    <t>LANDFILL</t>
+  </si>
+  <si>
+    <t>NO_CONTR_OD</t>
+  </si>
+  <si>
+    <t>COPROC</t>
+  </si>
+  <si>
+    <t>INCIN</t>
+  </si>
+  <si>
+    <t>OPEN_BURN</t>
+  </si>
+  <si>
+    <t>SIT_CLAN</t>
+  </si>
+  <si>
+    <t>AERO_PTAR</t>
+  </si>
+  <si>
+    <t>AERO_PTAR_RU</t>
+  </si>
+  <si>
+    <t>ANAE_LAGN</t>
+  </si>
+  <si>
+    <t>ANAE_LAGN_RU</t>
+  </si>
+  <si>
+    <t>SEPT_SYST</t>
+  </si>
+  <si>
+    <t>LATR</t>
+  </si>
+  <si>
+    <t>EFLT_DISC</t>
+  </si>
+  <si>
+    <t>SEWER_NO_T</t>
+  </si>
+  <si>
+    <t>RAW_MAT_CLK</t>
+  </si>
+  <si>
+    <t>RAW_MAT_CEM</t>
+  </si>
+  <si>
+    <t>IMP_STOR</t>
+  </si>
+  <si>
+    <t>REF_DSL</t>
+  </si>
+  <si>
+    <t>REF_GSL</t>
+  </si>
+  <si>
+    <t>REF_LPG</t>
+  </si>
+  <si>
+    <t>REF_FOI</t>
+  </si>
+  <si>
+    <t>PPBIM</t>
+  </si>
+  <si>
+    <t>PPBGS</t>
+  </si>
+  <si>
+    <t>PPCOA</t>
+  </si>
+  <si>
+    <t>PPCCTDSL</t>
+  </si>
+  <si>
+    <t>PPCCFOIDSL</t>
+  </si>
+  <si>
+    <t>PPCCTNGS</t>
+  </si>
+  <si>
+    <t>PPCCTNGSDSL</t>
+  </si>
+  <si>
+    <t>PPICEFOI</t>
+  </si>
+  <si>
+    <t>PPICEGASFOI</t>
   </si>
   <si>
     <t>ELE_TRANS</t>
   </si>
   <si>
+    <t>HYD_G_PROD</t>
+  </si>
+  <si>
     <t>ELE_DIST</t>
   </si>
   <si>
-    <t>HYD_G_PROD</t>
-  </si>
-  <si>
     <t>HYD_DIST</t>
   </si>
   <si>
-    <t>PPDSL</t>
-  </si>
-  <si>
-    <t>PPFOI</t>
+    <t>LU_FOR</t>
+  </si>
+  <si>
+    <t>LU_AGR</t>
+  </si>
+  <si>
+    <t>LU_GAN</t>
+  </si>
+  <si>
+    <t>LU_LATHUM</t>
+  </si>
+  <si>
+    <t>LU_DCON</t>
+  </si>
+  <si>
+    <t>LU_WET</t>
+  </si>
+  <si>
+    <t>LU_DRY</t>
+  </si>
+  <si>
+    <t>AG_RIC</t>
+  </si>
+  <si>
+    <t>AG_BAN</t>
+  </si>
+  <si>
+    <t>AG_SGC</t>
+  </si>
+  <si>
+    <t>AG_COC</t>
+  </si>
+  <si>
+    <t>AG_CAF</t>
+  </si>
+  <si>
+    <t>AG_LEG</t>
+  </si>
+  <si>
+    <t>AG_ROT</t>
+  </si>
+  <si>
+    <t>AG_FRT</t>
+  </si>
+  <si>
+    <t>AGR_CER</t>
+  </si>
+  <si>
+    <t>AG_TRVEG</t>
+  </si>
+  <si>
+    <t>AGR_OTP</t>
+  </si>
+  <si>
+    <t>GA_LEC</t>
+  </si>
+  <si>
+    <t>GA_CARAVI</t>
+  </si>
+  <si>
+    <t>GA_CARBOV</t>
+  </si>
+  <si>
+    <t>GA_CARPOR</t>
+  </si>
+  <si>
+    <t>GA_OTRCARPRO</t>
+  </si>
+  <si>
+    <t>GA_OTRCAR</t>
+  </si>
+  <si>
+    <t>OSS_INORG</t>
+  </si>
+  <si>
+    <t>OSS_ORG</t>
+  </si>
+  <si>
+    <t>NO_OSS_BLEND</t>
+  </si>
+  <si>
+    <t>NO_OSS_NO_COLL</t>
+  </si>
+  <si>
+    <t>INORG_DCOLL</t>
+  </si>
+  <si>
+    <t>ORG_DCOLL</t>
+  </si>
+  <si>
+    <t>BLEND_NO_DCOLL</t>
+  </si>
+  <si>
+    <t>BLEND_NO_COLL</t>
+  </si>
+  <si>
+    <t>INORG_SS</t>
+  </si>
+  <si>
+    <t>ORG_SS</t>
+  </si>
+  <si>
+    <t>NO_SS</t>
+  </si>
+  <si>
+    <t>WWWT</t>
+  </si>
+  <si>
+    <t>WWWOT</t>
+  </si>
+  <si>
+    <t>SEWERWW</t>
+  </si>
+  <si>
+    <t>DIRECT_DISC</t>
+  </si>
+  <si>
+    <t>PROD_CLK_TRAD</t>
+  </si>
+  <si>
+    <t>PROD_CEM</t>
+  </si>
+  <si>
+    <t>T5DSLCOM</t>
+  </si>
+  <si>
+    <t>T5GSLCOM</t>
+  </si>
+  <si>
+    <t>T5NGSCOM</t>
+  </si>
+  <si>
+    <t>T5LPGCOM</t>
+  </si>
+  <si>
+    <t>T5ELECOM</t>
+  </si>
+  <si>
+    <t>T5FIRCOM</t>
+  </si>
+  <si>
+    <t>T5DSLIND</t>
+  </si>
+  <si>
+    <t>T5GSLIND</t>
+  </si>
+  <si>
+    <t>T5NGSIND</t>
+  </si>
+  <si>
+    <t>T5LPGIND</t>
+  </si>
+  <si>
+    <t>T5ELEIND</t>
+  </si>
+  <si>
+    <t>T5HYDIND</t>
+  </si>
+  <si>
+    <t>T5COKIND</t>
+  </si>
+  <si>
+    <t>T5BIMIND</t>
+  </si>
+  <si>
+    <t>T5COAIND</t>
+  </si>
+  <si>
+    <t>T5FOIIND</t>
+  </si>
+  <si>
+    <t>T5LPGRES</t>
+  </si>
+  <si>
+    <t>T5ELERES</t>
+  </si>
+  <si>
+    <t>T5KERRES</t>
+  </si>
+  <si>
+    <t>T5FIRRES</t>
+  </si>
+  <si>
+    <t>T5BIMRES</t>
+  </si>
+  <si>
+    <t>T5GSLCON</t>
+  </si>
+  <si>
+    <t>T5LPGCON</t>
+  </si>
+  <si>
+    <t>T5NGSEXP</t>
+  </si>
+  <si>
+    <t>T5KEREXP</t>
+  </si>
+  <si>
+    <t>T5BIMEXP</t>
+  </si>
+  <si>
+    <t>T5DSLTOT</t>
+  </si>
+  <si>
+    <t>T5GSLTOT</t>
+  </si>
+  <si>
+    <t>T5ELETOT</t>
+  </si>
+  <si>
+    <t>T5GSLTAC</t>
+  </si>
+  <si>
+    <t>T5KERTAC</t>
   </si>
   <si>
     <t>T5DSLAGR</t>
   </si>
   <si>
+    <t>T5LPGAGR</t>
+  </si>
+  <si>
     <t>T5ELEAGR</t>
   </si>
   <si>
-    <t>T5LPGCOM</t>
-  </si>
-  <si>
-    <t>T5ELECOM</t>
-  </si>
-  <si>
-    <t>T5DSLIND</t>
-  </si>
-  <si>
-    <t>T5LPGIND</t>
-  </si>
-  <si>
-    <t>T5ELEIND</t>
-  </si>
-  <si>
-    <t>T5HYDIND</t>
-  </si>
-  <si>
-    <t>T5BMIND</t>
-  </si>
-  <si>
-    <t>T5BFIND</t>
-  </si>
-  <si>
-    <t>T5FOIIND</t>
-  </si>
-  <si>
-    <t>T5ELEPUB</t>
-  </si>
-  <si>
-    <t>T5LPGRES</t>
-  </si>
-  <si>
-    <t>T5ELERES</t>
-  </si>
-  <si>
-    <t>T5ELEEXP</t>
+    <t>T5RICAGR</t>
+  </si>
+  <si>
+    <t>T5BANAGR</t>
+  </si>
+  <si>
+    <t>T5SGCAGR</t>
+  </si>
+  <si>
+    <t>T5COCAGR</t>
+  </si>
+  <si>
+    <t>T5CAFAGR</t>
+  </si>
+  <si>
+    <t>T5LEGAGR</t>
+  </si>
+  <si>
+    <t>T5ROTAGR</t>
+  </si>
+  <si>
+    <t>T5FRTAGR</t>
+  </si>
+  <si>
+    <t>T5CERAGR</t>
+  </si>
+  <si>
+    <t>T5TRVEGAGR</t>
+  </si>
+  <si>
+    <t>T5OTPAGR</t>
+  </si>
+  <si>
+    <t>T5LECGAN</t>
+  </si>
+  <si>
+    <t>T5CARAVIGAN</t>
+  </si>
+  <si>
+    <t>T5CARBOVGAN</t>
+  </si>
+  <si>
+    <t>T5CARPORGAN</t>
+  </si>
+  <si>
+    <t>T5OTRCARPROGAN</t>
+  </si>
+  <si>
+    <t>T5OTRCARGAN</t>
+  </si>
+  <si>
+    <t>T5RICAGREXP</t>
+  </si>
+  <si>
+    <t>T5BANAGREXP</t>
+  </si>
+  <si>
+    <t>T5SGCAGREXP</t>
+  </si>
+  <si>
+    <t>T5COCAGREXP</t>
+  </si>
+  <si>
+    <t>T5CAFAGREXP</t>
+  </si>
+  <si>
+    <t>T5LEGAGREXP</t>
+  </si>
+  <si>
+    <t>T5ROTAGREXP</t>
+  </si>
+  <si>
+    <t>T5FRTAGREXP</t>
+  </si>
+  <si>
+    <t>T5CERAGREXP</t>
+  </si>
+  <si>
+    <t>T5TRVEGAGREXP</t>
+  </si>
+  <si>
+    <t>T5OTPAGREXP</t>
+  </si>
+  <si>
+    <t>T5LECGANEXP</t>
+  </si>
+  <si>
+    <t>T5CARAVIGANEXP</t>
+  </si>
+  <si>
+    <t>T5CARBOVGANEXP</t>
+  </si>
+  <si>
+    <t>T5CARPORGANEXP</t>
+  </si>
+  <si>
+    <t>T5OTRCARPROGANEXP</t>
+  </si>
+  <si>
+    <t>T5OTRCARGANEXP</t>
+  </si>
+  <si>
+    <t>T5TSWTSW</t>
+  </si>
+  <si>
+    <t>T5TWWTWW</t>
+  </si>
+  <si>
+    <t>T5CEM_PRODCEM_PROD</t>
   </si>
   <si>
     <t>T4DSL_PRI</t>
@@ -157,19 +625,37 @@
     <t>T4ELE_PRI</t>
   </si>
   <si>
+    <t>T4GSL_PUB</t>
+  </si>
+  <si>
+    <t>T4LPG_PUB</t>
+  </si>
+  <si>
+    <t>T4ELE_PUB</t>
+  </si>
+  <si>
+    <t>T4NGS_PRI</t>
+  </si>
+  <si>
     <t>T4DSL_PUB</t>
   </si>
   <si>
-    <t>T4LPG_PUB</t>
-  </si>
-  <si>
-    <t>T4ELE_PUB</t>
-  </si>
-  <si>
     <t>T4HYD_PUB</t>
   </si>
   <si>
-    <t>T4GSL_PUB</t>
+    <t>T4DSL_TUR</t>
+  </si>
+  <si>
+    <t>T4GSL_TUR</t>
+  </si>
+  <si>
+    <t>T4LPG_TUR</t>
+  </si>
+  <si>
+    <t>T4ELE_TUR</t>
+  </si>
+  <si>
+    <t>T4HYD_TUR</t>
   </si>
   <si>
     <t>T4ELE_HEA</t>
@@ -178,6 +664,9 @@
     <t>T4DSL_HEA</t>
   </si>
   <si>
+    <t>T4GSL_HEA</t>
+  </si>
+  <si>
     <t>T4LPG_HEA</t>
   </si>
   <si>
@@ -196,6 +685,39 @@
     <t>T4ELE_LIG</t>
   </si>
   <si>
+    <t>T4NGS_LIG</t>
+  </si>
+  <si>
+    <t>TRAUTDSL</t>
+  </si>
+  <si>
+    <t>TRAUTGSL</t>
+  </si>
+  <si>
+    <t>TRAUTLPG</t>
+  </si>
+  <si>
+    <t>TRAUTELE</t>
+  </si>
+  <si>
+    <t>TRAUTHG</t>
+  </si>
+  <si>
+    <t>TRTAXGSL</t>
+  </si>
+  <si>
+    <t>TRTAXLPG</t>
+  </si>
+  <si>
+    <t>TRTAXELE</t>
+  </si>
+  <si>
+    <t>TRMOTGSL</t>
+  </si>
+  <si>
+    <t>TRMOTELE</t>
+  </si>
+  <si>
     <t>TRSUVDSL</t>
   </si>
   <si>
@@ -208,73 +730,52 @@
     <t>TRSUVELE</t>
   </si>
   <si>
-    <t>TRSUVPHG</t>
-  </si>
-  <si>
-    <t>TRSUVPHD</t>
-  </si>
-  <si>
-    <t>TRSEDGSL</t>
-  </si>
-  <si>
-    <t>TRSEDELE</t>
-  </si>
-  <si>
-    <t>TRSEDPHG</t>
-  </si>
-  <si>
-    <t>TRMOTGSL</t>
-  </si>
-  <si>
-    <t>TRMOTELE</t>
-  </si>
-  <si>
-    <t>TRBUSDSL</t>
-  </si>
-  <si>
-    <t>TRBUSLPG</t>
-  </si>
-  <si>
-    <t>TRBUSELE</t>
-  </si>
-  <si>
-    <t>TRBUSHYD</t>
-  </si>
-  <si>
-    <t>TRBUSPHD</t>
-  </si>
-  <si>
-    <t>TRMBUSDSL</t>
-  </si>
-  <si>
-    <t>TRMBUSLPG</t>
-  </si>
-  <si>
-    <t>TRMBUSELE</t>
-  </si>
-  <si>
-    <t>TRMBUSHYD</t>
-  </si>
-  <si>
-    <t>TRMBUSPHD</t>
-  </si>
-  <si>
-    <t>TRTAXDSL</t>
-  </si>
-  <si>
-    <t>TRTAXGSL</t>
-  </si>
-  <si>
-    <t>TRTAXELE</t>
-  </si>
-  <si>
-    <t>TRTAXPHG</t>
-  </si>
-  <si>
-    <t>TRTAXPHD</t>
-  </si>
-  <si>
-    <t>TRXTRAIDSL</t>
+    <t>TRSUVNGS</t>
+  </si>
+  <si>
+    <t>TRBPUDSL</t>
+  </si>
+  <si>
+    <t>TRBPUGSL</t>
+  </si>
+  <si>
+    <t>TRBPULPG</t>
+  </si>
+  <si>
+    <t>TRBPUELE</t>
+  </si>
+  <si>
+    <t>TRBPUHYD</t>
+  </si>
+  <si>
+    <t>TRBTURDSL</t>
+  </si>
+  <si>
+    <t>TRBTURGSL</t>
+  </si>
+  <si>
+    <t>TRBTURLPG</t>
+  </si>
+  <si>
+    <t>TRBTURELE</t>
+  </si>
+  <si>
+    <t>TRBTURHYD</t>
+  </si>
+  <si>
+    <t>TRMBSDSL</t>
+  </si>
+  <si>
+    <t>TRMBSGSL</t>
+  </si>
+  <si>
+    <t>TRMBSLPG</t>
+  </si>
+  <si>
+    <t>TRMBSELE</t>
+  </si>
+  <si>
+    <t>TRXTTELELE</t>
   </si>
   <si>
     <t>TRXTRAIELE</t>
@@ -286,6 +787,9 @@
     <t>TRYTKDSL</t>
   </si>
   <si>
+    <t>TRYTKGSL</t>
+  </si>
+  <si>
     <t>TRYTKLPG</t>
   </si>
   <si>
@@ -295,7 +799,7 @@
     <t>TRYTKHYD</t>
   </si>
   <si>
-    <t>TRYTKPHD</t>
+    <t>TRYTKHD</t>
   </si>
   <si>
     <t>TRYLFDSL</t>
@@ -310,28 +814,34 @@
     <t>TRYLFELE</t>
   </si>
   <si>
-    <t>TRYLFPHG</t>
-  </si>
-  <si>
-    <t>TRYLFPHD</t>
-  </si>
-  <si>
-    <t>Techs_SUVMIV</t>
-  </si>
-  <si>
-    <t>Techs_Sedan</t>
+    <t>TRYLFNGS</t>
+  </si>
+  <si>
+    <t>TRYLFHD</t>
+  </si>
+  <si>
+    <t>Techs_Auto</t>
+  </si>
+  <si>
+    <t>Techs_Taxi</t>
   </si>
   <si>
     <t>Techs_Motos</t>
   </si>
   <si>
-    <t>Techs_Buses</t>
-  </si>
-  <si>
-    <t>Techs_Microbuses</t>
-  </si>
-  <si>
-    <t>Techs_Taxis</t>
+    <t>Techs_SUV</t>
+  </si>
+  <si>
+    <t>Techs_Buses_Pub</t>
+  </si>
+  <si>
+    <t>Techs_Buses_Tur</t>
+  </si>
+  <si>
+    <t>Techs_Buses_Micro</t>
+  </si>
+  <si>
+    <t>Techs_Telef</t>
   </si>
   <si>
     <t>Techs_Trains</t>
@@ -346,30 +856,36 @@
     <t>Techs_Li_Freight</t>
   </si>
   <si>
-    <t>TRANOMOTBike</t>
-  </si>
-  <si>
-    <t>TRANOMOTWalk</t>
-  </si>
-  <si>
-    <t>TRANPUB</t>
+    <t>TRANE6NOMOT</t>
   </si>
   <si>
     <t>TRANRAILINF</t>
   </si>
   <si>
-    <t>TRANRAILCAR</t>
-  </si>
-  <si>
-    <t>TRANE6NOMOT</t>
-  </si>
-  <si>
-    <t>TRANRAILFREINF</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
+    <t>E0_CRU</t>
+  </si>
+  <si>
+    <t>E0_LPG</t>
+  </si>
+  <si>
+    <t>E1FIR</t>
+  </si>
+  <si>
+    <t>E1BIM</t>
+  </si>
+  <si>
+    <t>E1BGS</t>
+  </si>
+  <si>
+    <t>E1CRU</t>
+  </si>
+  <si>
+    <t>E1NGS</t>
+  </si>
+  <si>
     <t>E1DSL</t>
   </si>
   <si>
@@ -379,7 +895,19 @@
     <t>E1LPG</t>
   </si>
   <si>
-    <t>E1FO1</t>
+    <t>E1FOI</t>
+  </si>
+  <si>
+    <t>E1COK</t>
+  </si>
+  <si>
+    <t>E1KER</t>
+  </si>
+  <si>
+    <t>E1COA</t>
+  </si>
+  <si>
+    <t>E1IEL</t>
   </si>
   <si>
     <t>E1ELE</t>
@@ -391,10 +919,73 @@
     <t>E3ELE</t>
   </si>
   <si>
-    <t>E1BM</t>
-  </si>
-  <si>
-    <t>E1BG</t>
+    <t>E1_SOI</t>
+  </si>
+  <si>
+    <t>E3_RIC</t>
+  </si>
+  <si>
+    <t>E3_BAN</t>
+  </si>
+  <si>
+    <t>E3_SGC</t>
+  </si>
+  <si>
+    <t>E3_COC</t>
+  </si>
+  <si>
+    <t>E3_TRVEG</t>
+  </si>
+  <si>
+    <t>E3_CAF</t>
+  </si>
+  <si>
+    <t>E3_LEG</t>
+  </si>
+  <si>
+    <t>E3_ROT</t>
+  </si>
+  <si>
+    <t>E3_FRT</t>
+  </si>
+  <si>
+    <t>E3_CER</t>
+  </si>
+  <si>
+    <t>E3_OTP</t>
+  </si>
+  <si>
+    <t>E3_LEC</t>
+  </si>
+  <si>
+    <t>E3_CARAVI</t>
+  </si>
+  <si>
+    <t>E3_CARBOV</t>
+  </si>
+  <si>
+    <t>E3_OTRCARPRO</t>
+  </si>
+  <si>
+    <t>E3_CARPOR</t>
+  </si>
+  <si>
+    <t>E3_OTRCAR</t>
+  </si>
+  <si>
+    <t>NO_OSS</t>
+  </si>
+  <si>
+    <t>NO_COLL_SDF</t>
+  </si>
+  <si>
+    <t>WWT</t>
+  </si>
+  <si>
+    <t>WWOT</t>
+  </si>
+  <si>
+    <t>CLK_PROD</t>
   </si>
   <si>
     <t>E2ELE</t>
@@ -403,52 +994,277 @@
     <t>E2HYDG</t>
   </si>
   <si>
+    <t>E2_FOR</t>
+  </si>
+  <si>
+    <t>E2_CUL</t>
+  </si>
+  <si>
+    <t>E2_PAS</t>
+  </si>
+  <si>
+    <t>COLL_INORG</t>
+  </si>
+  <si>
+    <t>COLL_ORG</t>
+  </si>
+  <si>
+    <t>COLL_BLEND</t>
+  </si>
+  <si>
+    <t>NO_COLL</t>
+  </si>
+  <si>
+    <t>INORGSS</t>
+  </si>
+  <si>
+    <t>ORGSS</t>
+  </si>
+  <si>
+    <t>NOSS</t>
+  </si>
+  <si>
+    <t>SEWER</t>
+  </si>
+  <si>
+    <t>DIRECTW</t>
+  </si>
+  <si>
     <t>E3HYD</t>
   </si>
   <si>
+    <t>E3_LATHUM</t>
+  </si>
+  <si>
+    <t>E3_DCON</t>
+  </si>
+  <si>
+    <t>E3_WET</t>
+  </si>
+  <si>
+    <t>E3_DRY</t>
+  </si>
+  <si>
+    <t>TSW</t>
+  </si>
+  <si>
+    <t>TWW</t>
+  </si>
+  <si>
+    <t>CEM_PROD</t>
+  </si>
+  <si>
+    <t>E5COMDSL</t>
+  </si>
+  <si>
+    <t>E5COMGSL</t>
+  </si>
+  <si>
+    <t>E5COMNGS</t>
+  </si>
+  <si>
+    <t>E5COMLPG</t>
+  </si>
+  <si>
+    <t>E5COMELE</t>
+  </si>
+  <si>
+    <t>E5COMFIR</t>
+  </si>
+  <si>
+    <t>E5INDDSL</t>
+  </si>
+  <si>
+    <t>E5INDGSL</t>
+  </si>
+  <si>
+    <t>E5INDNGS</t>
+  </si>
+  <si>
+    <t>E5INDLPG</t>
+  </si>
+  <si>
+    <t>E5INDELE</t>
+  </si>
+  <si>
+    <t>E5INDHYD</t>
+  </si>
+  <si>
+    <t>E5INDCOK</t>
+  </si>
+  <si>
+    <t>E5INDBIM</t>
+  </si>
+  <si>
+    <t>E5INDCOA</t>
+  </si>
+  <si>
+    <t>E5INDFOI</t>
+  </si>
+  <si>
+    <t>E5RESLPG</t>
+  </si>
+  <si>
+    <t>E5RESELE</t>
+  </si>
+  <si>
+    <t>E5RESKER</t>
+  </si>
+  <si>
+    <t>E5RESFIR</t>
+  </si>
+  <si>
+    <t>E5RESBIM</t>
+  </si>
+  <si>
+    <t>E5CONGSL</t>
+  </si>
+  <si>
+    <t>E5CONLPG</t>
+  </si>
+  <si>
+    <t>E5EXPNGS</t>
+  </si>
+  <si>
+    <t>E5EXPKER</t>
+  </si>
+  <si>
+    <t>E5EXPBIM</t>
+  </si>
+  <si>
+    <t>E5TOTDSL</t>
+  </si>
+  <si>
+    <t>E5TOTGSL</t>
+  </si>
+  <si>
+    <t>E5TOTELE</t>
+  </si>
+  <si>
+    <t>E5TACGSL</t>
+  </si>
+  <si>
+    <t>E5TACKER</t>
+  </si>
+  <si>
     <t>E5AGRDSL</t>
   </si>
   <si>
+    <t>E5AGRLPG</t>
+  </si>
+  <si>
     <t>E5AGRELE</t>
   </si>
   <si>
-    <t>E5COMLPG</t>
-  </si>
-  <si>
-    <t>E5COMELE</t>
-  </si>
-  <si>
-    <t>E5INDDSL</t>
-  </si>
-  <si>
-    <t>E5INDLPG</t>
-  </si>
-  <si>
-    <t>E5INDELE</t>
-  </si>
-  <si>
-    <t>E5INDHYD</t>
-  </si>
-  <si>
-    <t>E5INDBM</t>
-  </si>
-  <si>
-    <t>E5INDBF</t>
-  </si>
-  <si>
-    <t>E5INDFOI</t>
-  </si>
-  <si>
-    <t>E5PUBELE</t>
-  </si>
-  <si>
-    <t>E5RESLPG</t>
-  </si>
-  <si>
-    <t>E5RESELE</t>
-  </si>
-  <si>
-    <t>E5EXPELE</t>
+    <t>E5AGRRIC</t>
+  </si>
+  <si>
+    <t>E5AGRBAN</t>
+  </si>
+  <si>
+    <t>E5AGRSGC</t>
+  </si>
+  <si>
+    <t>E5AGRCOC</t>
+  </si>
+  <si>
+    <t>E5AGRCAF</t>
+  </si>
+  <si>
+    <t>E5AGRLEG</t>
+  </si>
+  <si>
+    <t>E5AGRROT</t>
+  </si>
+  <si>
+    <t>E5AGRFRT</t>
+  </si>
+  <si>
+    <t>E5AGRCER</t>
+  </si>
+  <si>
+    <t>E5AGRTRVEG</t>
+  </si>
+  <si>
+    <t>E5AGROTP</t>
+  </si>
+  <si>
+    <t>E5GANLEC</t>
+  </si>
+  <si>
+    <t>E5GANCARAVI</t>
+  </si>
+  <si>
+    <t>E5GANCARBOV</t>
+  </si>
+  <si>
+    <t>E5GANCARPOR</t>
+  </si>
+  <si>
+    <t>E5GANOTRCARPRO</t>
+  </si>
+  <si>
+    <t>E5GANOTRCAR</t>
+  </si>
+  <si>
+    <t>E5AGREXPRIC</t>
+  </si>
+  <si>
+    <t>E5AGREXPBAN</t>
+  </si>
+  <si>
+    <t>E5AGREXPSGC</t>
+  </si>
+  <si>
+    <t>E5AGREXPCOC</t>
+  </si>
+  <si>
+    <t>E5AGREXPCAF</t>
+  </si>
+  <si>
+    <t>E5AGREXPLEG</t>
+  </si>
+  <si>
+    <t>E5AGREXPROT</t>
+  </si>
+  <si>
+    <t>E5AGREXPFRT</t>
+  </si>
+  <si>
+    <t>E5AGREXPCER</t>
+  </si>
+  <si>
+    <t>E5AGREXPTRVEG</t>
+  </si>
+  <si>
+    <t>E5AGREXPOTP</t>
+  </si>
+  <si>
+    <t>E5GANEXPLEC</t>
+  </si>
+  <si>
+    <t>E5GANEXPCARAVI</t>
+  </si>
+  <si>
+    <t>E5GANEXPCARBOV</t>
+  </si>
+  <si>
+    <t>E5GANEXPCARPOR</t>
+  </si>
+  <si>
+    <t>E5GANEXPOTRCARPRO</t>
+  </si>
+  <si>
+    <t>E5GANEXPOTRCAR</t>
+  </si>
+  <si>
+    <t>E5TSWTSW</t>
+  </si>
+  <si>
+    <t>E5TWWTWW</t>
+  </si>
+  <si>
+    <t>E5CEM_PRODCEM_PROD</t>
   </si>
   <si>
     <t>E4DSL_PRI</t>
@@ -463,19 +1279,37 @@
     <t>E4ELE_PRI</t>
   </si>
   <si>
+    <t>E4GSL_PUB</t>
+  </si>
+  <si>
+    <t>E4LPG_PUB</t>
+  </si>
+  <si>
+    <t>E4ELE_PUB</t>
+  </si>
+  <si>
+    <t>E4NGS_PRI</t>
+  </si>
+  <si>
     <t>E4DSL_PUB</t>
   </si>
   <si>
-    <t>E4LPG_PUB</t>
-  </si>
-  <si>
-    <t>E4ELE_PUB</t>
-  </si>
-  <si>
     <t>E4HYD_PUB</t>
   </si>
   <si>
-    <t>E4GSL_PUB</t>
+    <t>E4DSL_TUR</t>
+  </si>
+  <si>
+    <t>E4GSL_TUR</t>
+  </si>
+  <si>
+    <t>E4LPG_TUR</t>
+  </si>
+  <si>
+    <t>E4ELE_TUR</t>
+  </si>
+  <si>
+    <t>E4HYD_TUR</t>
   </si>
   <si>
     <t>E4ELE_HEA</t>
@@ -484,6 +1318,9 @@
     <t>E4DSL_HEA</t>
   </si>
   <si>
+    <t>E4GSL_HEA</t>
+  </si>
+  <si>
     <t>E4LPG_HEA</t>
   </si>
   <si>
@@ -502,22 +1339,31 @@
     <t>E4ELE_LIG</t>
   </si>
   <si>
+    <t>E4NGS_LIG</t>
+  </si>
+  <si>
+    <t>E5TRAUT</t>
+  </si>
+  <si>
+    <t>E5TRTAX</t>
+  </si>
+  <si>
+    <t>E5TRMOT</t>
+  </si>
+  <si>
     <t>E5TRSUV</t>
   </si>
   <si>
-    <t>E5TRSED</t>
-  </si>
-  <si>
-    <t>E5TRMOT</t>
-  </si>
-  <si>
-    <t>E5TRBUS</t>
-  </si>
-  <si>
-    <t>E5TRMBUS</t>
-  </si>
-  <si>
-    <t>E5TRTAX</t>
+    <t>E5TRBPU</t>
+  </si>
+  <si>
+    <t>E5TRBTUR</t>
+  </si>
+  <si>
+    <t>E5TRMBS</t>
+  </si>
+  <si>
+    <t>E5TRXTTEL</t>
   </si>
   <si>
     <t>E5TRXTRAI</t>
@@ -538,6 +1384,9 @@
     <t>E6TDPASPUB</t>
   </si>
   <si>
+    <t>E6TDPASTUR</t>
+  </si>
+  <si>
     <t>E6TDFREHEA</t>
   </si>
   <si>
@@ -547,28 +1396,64 @@
     <t>E6TRNOMOT</t>
   </si>
   <si>
-    <t>CO2e_Freight</t>
-  </si>
-  <si>
-    <t>CO2e_HeavyCargo</t>
+    <t>CO2e_WASTE</t>
+  </si>
+  <si>
+    <t>CO2e_PIUP</t>
+  </si>
+  <si>
+    <t>CO2e_HFC</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>CO2e_AFOLU</t>
+  </si>
+  <si>
+    <t>CONTUR</t>
   </si>
   <si>
     <t>CO2e_sources</t>
   </si>
   <si>
-    <t>CO2e</t>
+    <t>CONHICK</t>
   </si>
   <si>
     <t>Health</t>
   </si>
   <si>
-    <t>Accidents</t>
-  </si>
-  <si>
-    <t>CO2e_LightCargo</t>
-  </si>
-  <si>
-    <t>Congestion</t>
+    <t>turismo_residuos</t>
+  </si>
+  <si>
+    <t>RESHID</t>
+  </si>
+  <si>
+    <t>FERT_ORG</t>
+  </si>
+  <si>
+    <t>CONHAB</t>
+  </si>
+  <si>
+    <t>CO2e_TRN</t>
+  </si>
+  <si>
+    <t>contam_agua</t>
+  </si>
+  <si>
+    <t>CO2e_PP</t>
+  </si>
+  <si>
+    <t>salud_residuos</t>
+  </si>
+  <si>
+    <t>CO2e_DE</t>
+  </si>
+  <si>
+    <t>CONVAR</t>
+  </si>
+  <si>
+    <t>DAPANI</t>
   </si>
   <si>
     <t>CR</t>
@@ -929,7 +1814,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -966,19 +1851,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>282</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>283</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>460</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>185</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -989,10 +1874,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1003,10 +1888,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1017,10 +1902,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1031,10 +1916,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>287</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1045,10 +1930,10 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>288</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1059,10 +1944,10 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1073,10 +1958,10 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>290</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1087,7 +1972,10 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>291</v>
+      </c>
+      <c r="E10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1098,7 +1986,10 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>292</v>
+      </c>
+      <c r="E11" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1109,7 +2000,10 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>293</v>
+      </c>
+      <c r="E12" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1120,7 +2014,10 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>294</v>
+      </c>
+      <c r="E13" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1131,7 +2028,10 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>295</v>
+      </c>
+      <c r="E14" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1142,7 +2042,10 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>296</v>
+      </c>
+      <c r="E15" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1153,10 +2056,13 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>297</v>
+      </c>
+      <c r="E16" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -1164,10 +2070,13 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>298</v>
+      </c>
+      <c r="E17" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -1175,10 +2084,13 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>299</v>
+      </c>
+      <c r="E18" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -1186,10 +2098,13 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>300</v>
+      </c>
+      <c r="E19" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -1197,10 +2112,13 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>301</v>
+      </c>
+      <c r="E20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -1208,10 +2126,13 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>302</v>
+      </c>
+      <c r="E21" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -1219,10 +2140,10 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>2039</v>
       </c>
@@ -1230,10 +2151,10 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>2040</v>
       </c>
@@ -1241,10 +2162,10 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>2041</v>
       </c>
@@ -1252,10 +2173,10 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>2042</v>
       </c>
@@ -1263,10 +2184,10 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>2043</v>
       </c>
@@ -1274,10 +2195,10 @@
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>2044</v>
       </c>
@@ -1285,10 +2206,10 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>2045</v>
       </c>
@@ -1296,10 +2217,10 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>2046</v>
       </c>
@@ -1307,10 +2228,10 @@
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>2047</v>
       </c>
@@ -1318,10 +2239,10 @@
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>2048</v>
       </c>
@@ -1329,7 +2250,7 @@
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1340,7 +2261,7 @@
         <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1351,7 +2272,7 @@
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1359,7 +2280,7 @@
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1367,7 +2288,7 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1375,7 +2296,7 @@
         <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1383,7 +2304,7 @@
         <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1391,7 +2312,7 @@
         <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1399,7 +2320,7 @@
         <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1407,7 +2328,7 @@
         <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1415,7 +2336,7 @@
         <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1423,7 +2344,7 @@
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1431,7 +2352,7 @@
         <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1439,7 +2360,7 @@
         <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1447,7 +2368,7 @@
         <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1455,7 +2376,7 @@
         <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1463,7 +2384,7 @@
         <v>53</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -1471,7 +2392,7 @@
         <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -1479,7 +2400,7 @@
         <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -1487,7 +2408,7 @@
         <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>167</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="2:4">
@@ -1495,7 +2416,7 @@
         <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -1503,7 +2424,7 @@
         <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>169</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="2:4">
@@ -1511,7 +2432,7 @@
         <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="2:4">
@@ -1519,7 +2440,7 @@
         <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -1527,7 +2448,7 @@
         <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -1535,7 +2456,7 @@
         <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>173</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -1543,7 +2464,7 @@
         <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="2:4">
@@ -1551,7 +2472,7 @@
         <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="2:4">
@@ -1559,262 +2480,1453 @@
         <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>176</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" t="s">
         <v>66</v>
       </c>
+      <c r="D61" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" t="s">
         <v>67</v>
       </c>
+      <c r="D62" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" t="s">
         <v>68</v>
       </c>
+      <c r="D63" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="65" spans="2:2">
+      <c r="D64" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
       <c r="B65" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="66" spans="2:2">
+      <c r="D65" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
       <c r="B66" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="2:2">
+      <c r="D66" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
       <c r="B67" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="68" spans="2:2">
+      <c r="D67" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
       <c r="B68" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="69" spans="2:2">
+      <c r="D68" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
       <c r="B69" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="2:2">
+      <c r="D69" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
       <c r="B70" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="2:2">
+      <c r="D70" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
       <c r="B71" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="72" spans="2:2">
+      <c r="D71" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
       <c r="B72" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="73" spans="2:2">
+      <c r="D72" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
       <c r="B73" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="74" spans="2:2">
+      <c r="D73" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
       <c r="B74" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="75" spans="2:2">
+      <c r="D74" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
       <c r="B75" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="76" spans="2:2">
+      <c r="D75" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
       <c r="B76" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="77" spans="2:2">
+      <c r="D76" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
       <c r="B77" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="78" spans="2:2">
+      <c r="D77" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
       <c r="B78" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="79" spans="2:2">
+      <c r="D78" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
       <c r="B79" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="80" spans="2:2">
+      <c r="D79" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
       <c r="B80" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="81" spans="2:2">
+      <c r="D80" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
       <c r="B81" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="82" spans="2:2">
+      <c r="D81" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
       <c r="B82" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="83" spans="2:2">
+      <c r="D82" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
       <c r="B83" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="84" spans="2:2">
+      <c r="D83" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
       <c r="B84" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="85" spans="2:2">
+      <c r="D84" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
       <c r="B85" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="86" spans="2:2">
+      <c r="D85" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
       <c r="B86" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="87" spans="2:2">
+      <c r="D86" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
       <c r="B87" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="88" spans="2:2">
+      <c r="D87" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
       <c r="B88" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="89" spans="2:2">
+      <c r="D88" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
       <c r="B89" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="90" spans="2:2">
+      <c r="D89" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
       <c r="B90" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="91" spans="2:2">
+      <c r="D90" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
       <c r="B91" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="92" spans="2:2">
+      <c r="D91" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
       <c r="B92" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="93" spans="2:2">
+      <c r="D92" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
       <c r="B93" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="94" spans="2:2">
+      <c r="D93" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
       <c r="B94" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="95" spans="2:2">
+      <c r="D94" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
       <c r="B95" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="96" spans="2:2">
+      <c r="D95" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
       <c r="B96" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="97" spans="2:2">
+      <c r="D96" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
       <c r="B97" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="98" spans="2:2">
+      <c r="D97" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
       <c r="B98" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="99" spans="2:2">
+      <c r="D98" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
       <c r="B99" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="100" spans="2:2">
+      <c r="D99" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
       <c r="B100" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="101" spans="2:2">
+      <c r="D100" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
       <c r="B101" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="102" spans="2:2">
+      <c r="D101" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
       <c r="B102" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="103" spans="2:2">
+      <c r="D102" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
       <c r="B103" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="104" spans="2:2">
+      <c r="D103" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
       <c r="B104" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="105" spans="2:2">
+      <c r="D104" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
       <c r="B105" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="106" spans="2:2">
+      <c r="D105" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
       <c r="B106" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="107" spans="2:2">
+      <c r="D106" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
       <c r="B107" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="108" spans="2:2">
+      <c r="D107" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
       <c r="B108" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="109" spans="2:2">
+      <c r="D108" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
       <c r="B109" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="110" spans="2:2">
+      <c r="D109" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
       <c r="B110" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="111" spans="2:2">
+      <c r="D110" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
       <c r="B111" t="s">
         <v>116</v>
+      </c>
+      <c r="D111" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" t="s">
+        <v>118</v>
+      </c>
+      <c r="D113" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" t="s">
+        <v>119</v>
+      </c>
+      <c r="D114" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" t="s">
+        <v>120</v>
+      </c>
+      <c r="D115" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+      <c r="D117" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" t="s">
+        <v>123</v>
+      </c>
+      <c r="D118" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" t="s">
+        <v>124</v>
+      </c>
+      <c r="D119" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" t="s">
+        <v>126</v>
+      </c>
+      <c r="D121" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" t="s">
+        <v>127</v>
+      </c>
+      <c r="D122" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123" t="s">
+        <v>128</v>
+      </c>
+      <c r="D123" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" t="s">
+        <v>129</v>
+      </c>
+      <c r="D124" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="B125" t="s">
+        <v>130</v>
+      </c>
+      <c r="D125" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127" t="s">
+        <v>132</v>
+      </c>
+      <c r="D127" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128" t="s">
+        <v>133</v>
+      </c>
+      <c r="D128" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" t="s">
+        <v>134</v>
+      </c>
+      <c r="D129" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" t="s">
+        <v>135</v>
+      </c>
+      <c r="D130" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" t="s">
+        <v>136</v>
+      </c>
+      <c r="D131" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="B132" t="s">
+        <v>137</v>
+      </c>
+      <c r="D132" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="B133" t="s">
+        <v>138</v>
+      </c>
+      <c r="D133" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" t="s">
+        <v>139</v>
+      </c>
+      <c r="D134" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" t="s">
+        <v>140</v>
+      </c>
+      <c r="D135" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" t="s">
+        <v>141</v>
+      </c>
+      <c r="D136" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" t="s">
+        <v>142</v>
+      </c>
+      <c r="D137" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="B138" t="s">
+        <v>143</v>
+      </c>
+      <c r="D138" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4">
+      <c r="B139" t="s">
+        <v>144</v>
+      </c>
+      <c r="D139" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4">
+      <c r="B140" t="s">
+        <v>145</v>
+      </c>
+      <c r="D140" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4">
+      <c r="B141" t="s">
+        <v>146</v>
+      </c>
+      <c r="D141" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4">
+      <c r="B142" t="s">
+        <v>147</v>
+      </c>
+      <c r="D142" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4">
+      <c r="B143" t="s">
+        <v>148</v>
+      </c>
+      <c r="D143" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="B144" t="s">
+        <v>149</v>
+      </c>
+      <c r="D144" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" t="s">
+        <v>150</v>
+      </c>
+      <c r="D145" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" t="s">
+        <v>151</v>
+      </c>
+      <c r="D146" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" t="s">
+        <v>152</v>
+      </c>
+      <c r="D147" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" t="s">
+        <v>153</v>
+      </c>
+      <c r="D148" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4">
+      <c r="B149" t="s">
+        <v>154</v>
+      </c>
+      <c r="D149" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" t="s">
+        <v>155</v>
+      </c>
+      <c r="D150" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" t="s">
+        <v>156</v>
+      </c>
+      <c r="D151" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" t="s">
+        <v>157</v>
+      </c>
+      <c r="D152" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" t="s">
+        <v>158</v>
+      </c>
+      <c r="D153" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" t="s">
+        <v>159</v>
+      </c>
+      <c r="D154" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4">
+      <c r="B155" t="s">
+        <v>160</v>
+      </c>
+      <c r="D155" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4">
+      <c r="B156" t="s">
+        <v>161</v>
+      </c>
+      <c r="D156" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4">
+      <c r="B157" t="s">
+        <v>162</v>
+      </c>
+      <c r="D157" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4">
+      <c r="B158" t="s">
+        <v>163</v>
+      </c>
+      <c r="D158" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4">
+      <c r="B159" t="s">
+        <v>164</v>
+      </c>
+      <c r="D159" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4">
+      <c r="B160" t="s">
+        <v>165</v>
+      </c>
+      <c r="D160" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4">
+      <c r="B161" t="s">
+        <v>166</v>
+      </c>
+      <c r="D161" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4">
+      <c r="B162" t="s">
+        <v>167</v>
+      </c>
+      <c r="D162" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="B163" t="s">
+        <v>168</v>
+      </c>
+      <c r="D163" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4">
+      <c r="B164" t="s">
+        <v>169</v>
+      </c>
+      <c r="D164" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4">
+      <c r="B165" t="s">
+        <v>170</v>
+      </c>
+      <c r="D165" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4">
+      <c r="B166" t="s">
+        <v>171</v>
+      </c>
+      <c r="D166" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4">
+      <c r="B167" t="s">
+        <v>172</v>
+      </c>
+      <c r="D167" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4">
+      <c r="B168" t="s">
+        <v>173</v>
+      </c>
+      <c r="D168" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4">
+      <c r="B169" t="s">
+        <v>174</v>
+      </c>
+      <c r="D169" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4">
+      <c r="B170" t="s">
+        <v>175</v>
+      </c>
+      <c r="D170" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4">
+      <c r="B171" t="s">
+        <v>176</v>
+      </c>
+      <c r="D171" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4">
+      <c r="B172" t="s">
+        <v>177</v>
+      </c>
+      <c r="D172" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4">
+      <c r="B173" t="s">
+        <v>178</v>
+      </c>
+      <c r="D173" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4">
+      <c r="B174" t="s">
+        <v>179</v>
+      </c>
+      <c r="D174" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4">
+      <c r="B175" t="s">
+        <v>180</v>
+      </c>
+      <c r="D175" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4">
+      <c r="B176" t="s">
+        <v>181</v>
+      </c>
+      <c r="D176" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4">
+      <c r="B177" t="s">
+        <v>182</v>
+      </c>
+      <c r="D177" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4">
+      <c r="B178" t="s">
+        <v>183</v>
+      </c>
+      <c r="D178" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179" t="s">
+        <v>184</v>
+      </c>
+      <c r="D179" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4">
+      <c r="B180" t="s">
+        <v>185</v>
+      </c>
+      <c r="D180" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" t="s">
+        <v>186</v>
+      </c>
+      <c r="D181" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4">
+      <c r="B182" t="s">
+        <v>187</v>
+      </c>
+      <c r="D182" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4">
+      <c r="B183" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4">
+      <c r="B184" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="B185" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4">
+      <c r="B186" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4">
+      <c r="B187" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4">
+      <c r="B188" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4">
+      <c r="B189" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4">
+      <c r="B190" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4">
+      <c r="B191" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4">
+      <c r="B192" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/t1_confection/A2_Structure_Lists.xlsx
+++ b/t1_confection/A2_Structure_Lists.xlsx
@@ -1396,67 +1396,67 @@
     <t>E6TRNOMOT</t>
   </si>
   <si>
+    <t>salud_residuos</t>
+  </si>
+  <si>
+    <t>CO2e_HFC</t>
+  </si>
+  <si>
+    <t>CO2e_AFOLU</t>
+  </si>
+  <si>
+    <t>FERT_ORG</t>
+  </si>
+  <si>
+    <t>CO2e_PP</t>
+  </si>
+  <si>
+    <t>CO2e_TRN</t>
+  </si>
+  <si>
+    <t>CONHAB</t>
+  </si>
+  <si>
+    <t>RESHID</t>
+  </si>
+  <si>
+    <t>CO2e_DE</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
     <t>CO2e_WASTE</t>
   </si>
   <si>
+    <t>CONVAR</t>
+  </si>
+  <si>
+    <t>contam_agua</t>
+  </si>
+  <si>
+    <t>CO2e_sources</t>
+  </si>
+  <si>
+    <t>turismo_residuos</t>
+  </si>
+  <si>
+    <t>CONTUR</t>
+  </si>
+  <si>
     <t>CO2e_PIUP</t>
   </si>
   <si>
-    <t>CO2e_HFC</t>
+    <t>DAPANI</t>
+  </si>
+  <si>
+    <t>CONHICK</t>
   </si>
   <si>
     <t>RM</t>
   </si>
   <si>
-    <t>CO2e_AFOLU</t>
-  </si>
-  <si>
-    <t>CONTUR</t>
-  </si>
-  <si>
-    <t>CO2e_sources</t>
-  </si>
-  <si>
-    <t>CONHICK</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>turismo_residuos</t>
-  </si>
-  <si>
-    <t>RESHID</t>
-  </si>
-  <si>
-    <t>FERT_ORG</t>
-  </si>
-  <si>
-    <t>CONHAB</t>
-  </si>
-  <si>
-    <t>CO2e_TRN</t>
-  </si>
-  <si>
-    <t>contam_agua</t>
-  </si>
-  <si>
-    <t>CO2e_PP</t>
-  </si>
-  <si>
-    <t>salud_residuos</t>
-  </si>
-  <si>
-    <t>CO2e_DE</t>
-  </si>
-  <si>
-    <t>CONVAR</t>
-  </si>
-  <si>
-    <t>DAPANI</t>
-  </si>
-  <si>
-    <t>CR</t>
+    <t>RD</t>
   </si>
 </sst>
 </file>
@@ -3932,4 +3932,252 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
+    <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+    <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB77B141-841B-45FC-902A-A20E553CDCF3}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECCA18A1-5AF1-4304-9BF9-8C324D3B215B}"/>
 </file>
--- a/t1_confection/A2_Structure_Lists.xlsx
+++ b/t1_confection/A2_Structure_Lists.xlsx
@@ -1396,64 +1396,64 @@
     <t>E6TRNOMOT</t>
   </si>
   <si>
+    <t>CO2e_PP</t>
+  </si>
+  <si>
+    <t>CONTUR</t>
+  </si>
+  <si>
+    <t>FERT_ORG</t>
+  </si>
+  <si>
+    <t>CO2e_PIUP</t>
+  </si>
+  <si>
+    <t>turismo_residuos</t>
+  </si>
+  <si>
+    <t>CO2e_HFC</t>
+  </si>
+  <si>
+    <t>CO2e_AFOLU</t>
+  </si>
+  <si>
+    <t>CONHICK</t>
+  </si>
+  <si>
+    <t>CO2e_WASTE</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>CONHAB</t>
+  </si>
+  <si>
+    <t>DAPANI</t>
+  </si>
+  <si>
+    <t>contam_agua</t>
+  </si>
+  <si>
+    <t>CO2e_DE</t>
+  </si>
+  <si>
+    <t>CO2e_TRN</t>
+  </si>
+  <si>
+    <t>CO2e_sources</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>RESHID</t>
+  </si>
+  <si>
+    <t>CONVAR</t>
+  </si>
+  <si>
     <t>salud_residuos</t>
-  </si>
-  <si>
-    <t>CO2e_HFC</t>
-  </si>
-  <si>
-    <t>CO2e_AFOLU</t>
-  </si>
-  <si>
-    <t>FERT_ORG</t>
-  </si>
-  <si>
-    <t>CO2e_PP</t>
-  </si>
-  <si>
-    <t>CO2e_TRN</t>
-  </si>
-  <si>
-    <t>CONHAB</t>
-  </si>
-  <si>
-    <t>RESHID</t>
-  </si>
-  <si>
-    <t>CO2e_DE</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>CO2e_WASTE</t>
-  </si>
-  <si>
-    <t>CONVAR</t>
-  </si>
-  <si>
-    <t>contam_agua</t>
-  </si>
-  <si>
-    <t>CO2e_sources</t>
-  </si>
-  <si>
-    <t>turismo_residuos</t>
-  </si>
-  <si>
-    <t>CONTUR</t>
-  </si>
-  <si>
-    <t>CO2e_PIUP</t>
-  </si>
-  <si>
-    <t>DAPANI</t>
-  </si>
-  <si>
-    <t>CONHICK</t>
-  </si>
-  <si>
-    <t>RM</t>
   </si>
   <si>
     <t>RD</t>
@@ -3932,252 +3932,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
-    <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
-    <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB77B141-841B-45FC-902A-A20E553CDCF3}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECCA18A1-5AF1-4304-9BF9-8C324D3B215B}"/>
 </file>
--- a/t1_confection/A2_Structure_Lists.xlsx
+++ b/t1_confection/A2_Structure_Lists.xlsx
@@ -862,7 +862,7 @@
     <t>TRANRAILINF</t>
   </si>
   <si>
-    <t>All</t>
+    <t>Some</t>
   </si>
   <si>
     <t>E0_CRU</t>
@@ -1396,64 +1396,64 @@
     <t>E6TRNOMOT</t>
   </si>
   <si>
+    <t>CONTUR</t>
+  </si>
+  <si>
+    <t>salud_residuos</t>
+  </si>
+  <si>
+    <t>contam_agua</t>
+  </si>
+  <si>
+    <t>RESHID</t>
+  </si>
+  <si>
+    <t>CO2e_HFC</t>
+  </si>
+  <si>
+    <t>CONHICK</t>
+  </si>
+  <si>
+    <t>DAPANI</t>
+  </si>
+  <si>
+    <t>FERT_ORG</t>
+  </si>
+  <si>
+    <t>CO2e_PIUP</t>
+  </si>
+  <si>
+    <t>CONVAR</t>
+  </si>
+  <si>
+    <t>CO2e_sources</t>
+  </si>
+  <si>
     <t>CO2e_PP</t>
   </si>
   <si>
-    <t>CONTUR</t>
-  </si>
-  <si>
-    <t>FERT_ORG</t>
-  </si>
-  <si>
-    <t>CO2e_PIUP</t>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>CO2e_DE</t>
   </si>
   <si>
     <t>turismo_residuos</t>
   </si>
   <si>
-    <t>CO2e_HFC</t>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>CO2e_TRN</t>
+  </si>
+  <si>
+    <t>CONHAB</t>
   </si>
   <si>
     <t>CO2e_AFOLU</t>
   </si>
   <si>
-    <t>CONHICK</t>
-  </si>
-  <si>
     <t>CO2e_WASTE</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>CONHAB</t>
-  </si>
-  <si>
-    <t>DAPANI</t>
-  </si>
-  <si>
-    <t>contam_agua</t>
-  </si>
-  <si>
-    <t>CO2e_DE</t>
-  </si>
-  <si>
-    <t>CO2e_TRN</t>
-  </si>
-  <si>
-    <t>CO2e_sources</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>RESHID</t>
-  </si>
-  <si>
-    <t>CONVAR</t>
-  </si>
-  <si>
-    <t>salud_residuos</t>
   </si>
   <si>
     <t>RD</t>

--- a/t1_confection/A2_Structure_Lists.xlsx
+++ b/t1_confection/A2_Structure_Lists.xlsx
@@ -1396,64 +1396,64 @@
     <t>E6TRNOMOT</t>
   </si>
   <si>
+    <t>RESHID</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>CO2e_AFOLU</t>
+  </si>
+  <si>
     <t>CONTUR</t>
   </si>
   <si>
+    <t>turismo_residuos</t>
+  </si>
+  <si>
+    <t>CO2e_PIUP</t>
+  </si>
+  <si>
+    <t>CONVAR</t>
+  </si>
+  <si>
+    <t>CO2e_PP</t>
+  </si>
+  <si>
+    <t>CO2e_sources</t>
+  </si>
+  <si>
+    <t>FERT_ORG</t>
+  </si>
+  <si>
+    <t>DAPANI</t>
+  </si>
+  <si>
+    <t>CONHICK</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>contam_agua</t>
+  </si>
+  <si>
+    <t>CONHAB</t>
+  </si>
+  <si>
+    <t>CO2e_HFC</t>
+  </si>
+  <si>
+    <t>CO2e_TRN</t>
+  </si>
+  <si>
+    <t>CO2e_WASTE</t>
+  </si>
+  <si>
+    <t>CO2e_DE</t>
+  </si>
+  <si>
     <t>salud_residuos</t>
-  </si>
-  <si>
-    <t>contam_agua</t>
-  </si>
-  <si>
-    <t>RESHID</t>
-  </si>
-  <si>
-    <t>CO2e_HFC</t>
-  </si>
-  <si>
-    <t>CONHICK</t>
-  </si>
-  <si>
-    <t>DAPANI</t>
-  </si>
-  <si>
-    <t>FERT_ORG</t>
-  </si>
-  <si>
-    <t>CO2e_PIUP</t>
-  </si>
-  <si>
-    <t>CONVAR</t>
-  </si>
-  <si>
-    <t>CO2e_sources</t>
-  </si>
-  <si>
-    <t>CO2e_PP</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>CO2e_DE</t>
-  </si>
-  <si>
-    <t>turismo_residuos</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>CO2e_TRN</t>
-  </si>
-  <si>
-    <t>CONHAB</t>
-  </si>
-  <si>
-    <t>CO2e_AFOLU</t>
-  </si>
-  <si>
-    <t>CO2e_WASTE</t>
   </si>
   <si>
     <t>RD</t>

--- a/t1_confection/A2_Structure_Lists.xlsx
+++ b/t1_confection/A2_Structure_Lists.xlsx
@@ -1396,64 +1396,64 @@
     <t>E6TRNOMOT</t>
   </si>
   <si>
+    <t>FERT_ORG</t>
+  </si>
+  <si>
+    <t>DAPANI</t>
+  </si>
+  <si>
+    <t>CONVAR</t>
+  </si>
+  <si>
+    <t>CO2e_sources</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>CO2e_TRN</t>
+  </si>
+  <si>
+    <t>RESHID</t>
+  </si>
+  <si>
     <t>CO2e_PP</t>
   </si>
   <si>
+    <t>contam_agua</t>
+  </si>
+  <si>
+    <t>CO2e_AFOLU</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>CO2e_HFC</t>
+  </si>
+  <si>
     <t>CONTUR</t>
   </si>
   <si>
-    <t>FERT_ORG</t>
+    <t>CONHAB</t>
+  </si>
+  <si>
+    <t>CONHICK</t>
+  </si>
+  <si>
+    <t>turismo_residuos</t>
+  </si>
+  <si>
+    <t>salud_residuos</t>
+  </si>
+  <si>
+    <t>CO2e_WASTE</t>
+  </si>
+  <si>
+    <t>CO2e_DE</t>
   </si>
   <si>
     <t>CO2e_PIUP</t>
-  </si>
-  <si>
-    <t>turismo_residuos</t>
-  </si>
-  <si>
-    <t>CO2e_HFC</t>
-  </si>
-  <si>
-    <t>CO2e_AFOLU</t>
-  </si>
-  <si>
-    <t>CONHICK</t>
-  </si>
-  <si>
-    <t>CO2e_WASTE</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>CONHAB</t>
-  </si>
-  <si>
-    <t>DAPANI</t>
-  </si>
-  <si>
-    <t>contam_agua</t>
-  </si>
-  <si>
-    <t>CO2e_DE</t>
-  </si>
-  <si>
-    <t>CO2e_TRN</t>
-  </si>
-  <si>
-    <t>CO2e_sources</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>RESHID</t>
-  </si>
-  <si>
-    <t>CONVAR</t>
-  </si>
-  <si>
-    <t>salud_residuos</t>
   </si>
   <si>
     <t>RD</t>

--- a/t1_confection/A2_Structure_Lists.xlsx
+++ b/t1_confection/A2_Structure_Lists.xlsx
@@ -1396,28 +1396,55 @@
     <t>E6TRNOMOT</t>
   </si>
   <si>
+    <t>CO2e_HFC</t>
+  </si>
+  <si>
+    <t>contam_agua</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>CONHICK</t>
+  </si>
+  <si>
     <t>RESHID</t>
   </si>
   <si>
-    <t>RM</t>
+    <t>CO2e_TRN</t>
+  </si>
+  <si>
+    <t>CO2e_WASTE</t>
+  </si>
+  <si>
+    <t>turismo_residuos</t>
+  </si>
+  <si>
+    <t>DAPANI</t>
+  </si>
+  <si>
+    <t>CONHAB</t>
+  </si>
+  <si>
+    <t>CONTUR</t>
+  </si>
+  <si>
+    <t>CONVAR</t>
+  </si>
+  <si>
+    <t>CO2e_PIUP</t>
+  </si>
+  <si>
+    <t>CO2e_PP</t>
   </si>
   <si>
     <t>CO2e_AFOLU</t>
   </si>
   <si>
-    <t>CONTUR</t>
-  </si>
-  <si>
-    <t>turismo_residuos</t>
-  </si>
-  <si>
-    <t>CO2e_PIUP</t>
-  </si>
-  <si>
-    <t>CONVAR</t>
-  </si>
-  <si>
-    <t>CO2e_PP</t>
+    <t>salud_residuos</t>
   </si>
   <si>
     <t>CO2e_sources</t>
@@ -1426,34 +1453,7 @@
     <t>FERT_ORG</t>
   </si>
   <si>
-    <t>DAPANI</t>
-  </si>
-  <si>
-    <t>CONHICK</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>contam_agua</t>
-  </si>
-  <si>
-    <t>CONHAB</t>
-  </si>
-  <si>
-    <t>CO2e_HFC</t>
-  </si>
-  <si>
-    <t>CO2e_TRN</t>
-  </si>
-  <si>
-    <t>CO2e_WASTE</t>
-  </si>
-  <si>
     <t>CO2e_DE</t>
-  </si>
-  <si>
-    <t>salud_residuos</t>
   </si>
   <si>
     <t>RD</t>

--- a/t1_confection/A2_Structure_Lists.xlsx
+++ b/t1_confection/A2_Structure_Lists.xlsx
@@ -1396,64 +1396,64 @@
     <t>E6TRNOMOT</t>
   </si>
   <si>
+    <t>CO2e_sources</t>
+  </si>
+  <si>
+    <t>turismo_residuos</t>
+  </si>
+  <si>
+    <t>CO2e_PIUP</t>
+  </si>
+  <si>
+    <t>CONTUR</t>
+  </si>
+  <si>
+    <t>DAPANI</t>
+  </si>
+  <si>
+    <t>RESHID</t>
+  </si>
+  <si>
     <t>CO2e_HFC</t>
   </si>
   <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>CO2e_AFOLU</t>
+  </si>
+  <si>
+    <t>CONHICK</t>
+  </si>
+  <si>
+    <t>CONHAB</t>
+  </si>
+  <si>
     <t>contam_agua</t>
   </si>
   <si>
-    <t>Health</t>
+    <t>CONVAR</t>
+  </si>
+  <si>
+    <t>salud_residuos</t>
   </si>
   <si>
     <t>RM</t>
   </si>
   <si>
-    <t>CONHICK</t>
-  </si>
-  <si>
-    <t>RESHID</t>
+    <t>CO2e_PP</t>
+  </si>
+  <si>
+    <t>FERT_ORG</t>
   </si>
   <si>
     <t>CO2e_TRN</t>
   </si>
   <si>
+    <t>CO2e_DE</t>
+  </si>
+  <si>
     <t>CO2e_WASTE</t>
-  </si>
-  <si>
-    <t>turismo_residuos</t>
-  </si>
-  <si>
-    <t>DAPANI</t>
-  </si>
-  <si>
-    <t>CONHAB</t>
-  </si>
-  <si>
-    <t>CONTUR</t>
-  </si>
-  <si>
-    <t>CONVAR</t>
-  </si>
-  <si>
-    <t>CO2e_PIUP</t>
-  </si>
-  <si>
-    <t>CO2e_PP</t>
-  </si>
-  <si>
-    <t>CO2e_AFOLU</t>
-  </si>
-  <si>
-    <t>salud_residuos</t>
-  </si>
-  <si>
-    <t>CO2e_sources</t>
-  </si>
-  <si>
-    <t>FERT_ORG</t>
-  </si>
-  <si>
-    <t>CO2e_DE</t>
   </si>
   <si>
     <t>RD</t>

--- a/t1_confection/A2_Structure_Lists.xlsx
+++ b/t1_confection/A2_Structure_Lists.xlsx
@@ -892,13 +892,13 @@
     <t>CO2e_LUBRI</t>
   </si>
   <si>
+    <t>CO2e_LIME</t>
+  </si>
+  <si>
     <t>CO2e_sources</t>
   </si>
   <si>
     <t>CO2e_DE</t>
-  </si>
-  <si>
-    <t>CO2e_LIME</t>
   </si>
   <si>
     <t>CO2e_HFC</t>
@@ -2598,225 +2598,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F74FB0E003A88C4B9D9793633BA4B356" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0b91461ea42f649c0e2a912844849d59">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d55314f-45f1-40c9-9fce-63556e193d03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2dde1a2dc8a4a80923ccdd7c7b3969d3" ns2:_="">
-    <xsd:import namespace="0d55314f-45f1-40c9-9fce-63556e193d03"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0d55314f-45f1-40c9-9fce-63556e193d03" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0d55314f-45f1-40c9-9fce-63556e193d03">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CE50A-213E-4F06-8AE4-7AC67C430520}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{302A386E-8CF0-436B-848A-34E52CE53938}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2984054-53B2-40F6-88F9-912EC145D843}"/>
 </file>
--- a/t1_confection/A2_Structure_Lists.xlsx
+++ b/t1_confection/A2_Structure_Lists.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="491">
   <si>
     <t>Year</t>
   </si>
@@ -109,7 +109,7 @@
     <t>PPPVD</t>
   </si>
   <si>
-    <t>PPPVDS</t>
+    <t>PPDHYD</t>
   </si>
   <si>
     <t>SOIALL</t>
@@ -265,6 +265,36 @@
     <t>PPICEGASFOI</t>
   </si>
   <si>
+    <t>PPADSL</t>
+  </si>
+  <si>
+    <t>PPAFOI</t>
+  </si>
+  <si>
+    <t>PPANGS</t>
+  </si>
+  <si>
+    <t>PPDBIM</t>
+  </si>
+  <si>
+    <t>PPDBGS</t>
+  </si>
+  <si>
+    <t>PPDDSL</t>
+  </si>
+  <si>
+    <t>PPDFOI</t>
+  </si>
+  <si>
+    <t>PPDNGS</t>
+  </si>
+  <si>
+    <t>PPDGSL</t>
+  </si>
+  <si>
+    <t>PPDGLP</t>
+  </si>
+  <si>
     <t>ELE_TRANS</t>
   </si>
   <si>
@@ -907,9 +937,6 @@
     <t>E1COA</t>
   </si>
   <si>
-    <t>E1IEL</t>
-  </si>
-  <si>
     <t>E1ELE</t>
   </si>
   <si>
@@ -1396,64 +1423,67 @@
     <t>E6TRNOMOT</t>
   </si>
   <si>
+    <t>CO2e_HFC</t>
+  </si>
+  <si>
+    <t>FERT_ORG</t>
+  </si>
+  <si>
+    <t>CO2e_AFOLU</t>
+  </si>
+  <si>
+    <t>CONHICK</t>
+  </si>
+  <si>
+    <t>CONVAR</t>
+  </si>
+  <si>
+    <t>CO2e_WASTE</t>
+  </si>
+  <si>
+    <t>CO2e_AP</t>
+  </si>
+  <si>
+    <t>CO2e_sources</t>
+  </si>
+  <si>
+    <t>salud_residuos</t>
+  </si>
+  <si>
+    <t>CONHAB</t>
+  </si>
+  <si>
+    <t>RESHID</t>
+  </si>
+  <si>
     <t>CO2e_PP</t>
   </si>
   <si>
+    <t>turismo_residuos</t>
+  </si>
+  <si>
+    <t>contam_agua</t>
+  </si>
+  <si>
+    <t>DAPANI</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>CO2e_PIUP</t>
+  </si>
+  <si>
+    <t>CO2e_TRN</t>
+  </si>
+  <si>
+    <t>CO2e_DE</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
     <t>CONTUR</t>
-  </si>
-  <si>
-    <t>FERT_ORG</t>
-  </si>
-  <si>
-    <t>CO2e_PIUP</t>
-  </si>
-  <si>
-    <t>turismo_residuos</t>
-  </si>
-  <si>
-    <t>CO2e_HFC</t>
-  </si>
-  <si>
-    <t>CO2e_AFOLU</t>
-  </si>
-  <si>
-    <t>CONHICK</t>
-  </si>
-  <si>
-    <t>CO2e_WASTE</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>CONHAB</t>
-  </si>
-  <si>
-    <t>DAPANI</t>
-  </si>
-  <si>
-    <t>contam_agua</t>
-  </si>
-  <si>
-    <t>CO2e_DE</t>
-  </si>
-  <si>
-    <t>CO2e_TRN</t>
-  </si>
-  <si>
-    <t>CO2e_sources</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>RESHID</t>
-  </si>
-  <si>
-    <t>CONVAR</t>
-  </si>
-  <si>
-    <t>salud_residuos</t>
   </si>
   <si>
     <t>RD</t>
@@ -1814,7 +1844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G276"/>
+  <dimension ref="A1:G286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1851,19 +1881,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="E2" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1874,10 +1904,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="E3" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1888,10 +1918,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="E4" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1902,10 +1932,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="E5" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1916,10 +1946,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="E6" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1930,10 +1960,10 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1944,10 +1974,10 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E8" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1958,10 +1988,10 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E9" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1972,10 +2002,10 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E10" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1986,10 +2016,10 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="E11" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2000,10 +2030,10 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="E12" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2014,10 +2044,10 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="E13" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2028,10 +2058,10 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E14" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2042,10 +2072,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>296</v>
-      </c>
-      <c r="E15" t="s">
-        <v>473</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2056,10 +2083,10 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="E16" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2070,10 +2097,10 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="E17" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2084,10 +2111,10 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="E18" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2098,10 +2125,10 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="E19" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2112,10 +2139,10 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="E20" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2126,10 +2153,10 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="E21" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2140,7 +2167,10 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>303</v>
+        <v>313</v>
+      </c>
+      <c r="E22" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2151,7 +2181,10 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>304</v>
+        <v>314</v>
+      </c>
+      <c r="E23" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2162,7 +2195,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2173,7 +2206,7 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2184,7 +2217,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2195,7 +2228,7 @@
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2206,7 +2239,7 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2217,7 +2250,7 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2228,7 +2261,7 @@
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2239,7 +2272,7 @@
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2250,7 +2283,7 @@
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2261,7 +2294,7 @@
         <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2272,7 +2305,7 @@
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2280,7 +2313,7 @@
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2288,7 +2321,7 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2296,7 +2329,7 @@
         <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>318</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2304,7 +2337,7 @@
         <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2312,7 +2345,7 @@
         <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2320,7 +2353,7 @@
         <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2328,7 +2361,7 @@
         <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2336,7 +2369,7 @@
         <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2344,7 +2377,7 @@
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>322</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2352,7 +2385,7 @@
         <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2360,7 +2393,7 @@
         <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2368,7 +2401,7 @@
         <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2376,7 +2409,7 @@
         <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2384,7 +2417,7 @@
         <v>53</v>
       </c>
       <c r="D48" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -2392,7 +2425,7 @@
         <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -2400,7 +2433,7 @@
         <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -2408,7 +2441,7 @@
         <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="2:4">
@@ -2416,7 +2449,7 @@
         <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -2424,7 +2457,7 @@
         <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="2:4">
@@ -2432,7 +2465,7 @@
         <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="2:4">
@@ -2440,7 +2473,7 @@
         <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -2448,7 +2481,7 @@
         <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -2456,7 +2489,7 @@
         <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -2464,7 +2497,7 @@
         <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="2:4">
@@ -2472,7 +2505,7 @@
         <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="2:4">
@@ -2480,7 +2513,7 @@
         <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -2488,7 +2521,7 @@
         <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="2:4">
@@ -2496,7 +2529,7 @@
         <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -2504,7 +2537,7 @@
         <v>68</v>
       </c>
       <c r="D63" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="2:4">
@@ -2512,7 +2545,7 @@
         <v>69</v>
       </c>
       <c r="D64" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="2:4">
@@ -2520,7 +2553,7 @@
         <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="2:4">
@@ -2528,7 +2561,7 @@
         <v>71</v>
       </c>
       <c r="D66" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="2:4">
@@ -2536,7 +2569,7 @@
         <v>72</v>
       </c>
       <c r="D67" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="2:4">
@@ -2544,7 +2577,7 @@
         <v>73</v>
       </c>
       <c r="D68" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="2:4">
@@ -2552,7 +2585,7 @@
         <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="2:4">
@@ -2560,7 +2593,7 @@
         <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" spans="2:4">
@@ -2568,7 +2601,7 @@
         <v>76</v>
       </c>
       <c r="D71" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -2576,7 +2609,7 @@
         <v>77</v>
       </c>
       <c r="D72" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="2:4">
@@ -2584,7 +2617,7 @@
         <v>78</v>
       </c>
       <c r="D73" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="2:4">
@@ -2592,7 +2625,7 @@
         <v>79</v>
       </c>
       <c r="D74" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="2:4">
@@ -2600,7 +2633,7 @@
         <v>80</v>
       </c>
       <c r="D75" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" spans="2:4">
@@ -2608,7 +2641,7 @@
         <v>81</v>
       </c>
       <c r="D76" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="2:4">
@@ -2616,7 +2649,7 @@
         <v>82</v>
       </c>
       <c r="D77" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="2:4">
@@ -2624,7 +2657,7 @@
         <v>83</v>
       </c>
       <c r="D78" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="2:4">
@@ -2632,7 +2665,7 @@
         <v>84</v>
       </c>
       <c r="D79" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="80" spans="2:4">
@@ -2640,7 +2673,7 @@
         <v>85</v>
       </c>
       <c r="D80" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" spans="2:4">
@@ -2648,7 +2681,7 @@
         <v>86</v>
       </c>
       <c r="D81" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" spans="2:4">
@@ -2656,7 +2689,7 @@
         <v>87</v>
       </c>
       <c r="D82" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="83" spans="2:4">
@@ -2664,7 +2697,7 @@
         <v>88</v>
       </c>
       <c r="D83" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="84" spans="2:4">
@@ -2672,7 +2705,7 @@
         <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="2:4">
@@ -2680,7 +2713,7 @@
         <v>90</v>
       </c>
       <c r="D85" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="2:4">
@@ -2688,7 +2721,7 @@
         <v>91</v>
       </c>
       <c r="D86" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="87" spans="2:4">
@@ -2696,7 +2729,7 @@
         <v>92</v>
       </c>
       <c r="D87" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="88" spans="2:4">
@@ -2704,7 +2737,7 @@
         <v>93</v>
       </c>
       <c r="D88" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" spans="2:4">
@@ -2712,7 +2745,7 @@
         <v>94</v>
       </c>
       <c r="D89" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="90" spans="2:4">
@@ -2720,7 +2753,7 @@
         <v>95</v>
       </c>
       <c r="D90" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91" spans="2:4">
@@ -2728,7 +2761,7 @@
         <v>96</v>
       </c>
       <c r="D91" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="92" spans="2:4">
@@ -2736,7 +2769,7 @@
         <v>97</v>
       </c>
       <c r="D92" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="2:4">
@@ -2744,7 +2777,7 @@
         <v>98</v>
       </c>
       <c r="D93" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94" spans="2:4">
@@ -2752,7 +2785,7 @@
         <v>99</v>
       </c>
       <c r="D94" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="95" spans="2:4">
@@ -2760,7 +2793,7 @@
         <v>100</v>
       </c>
       <c r="D95" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="2:4">
@@ -2768,7 +2801,7 @@
         <v>101</v>
       </c>
       <c r="D96" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97" spans="2:4">
@@ -2776,7 +2809,7 @@
         <v>102</v>
       </c>
       <c r="D97" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" spans="2:4">
@@ -2784,7 +2817,7 @@
         <v>103</v>
       </c>
       <c r="D98" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="99" spans="2:4">
@@ -2792,7 +2825,7 @@
         <v>104</v>
       </c>
       <c r="D99" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="100" spans="2:4">
@@ -2800,7 +2833,7 @@
         <v>105</v>
       </c>
       <c r="D100" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101" spans="2:4">
@@ -2808,7 +2841,7 @@
         <v>106</v>
       </c>
       <c r="D101" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="2:4">
@@ -2816,7 +2849,7 @@
         <v>107</v>
       </c>
       <c r="D102" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="103" spans="2:4">
@@ -2824,7 +2857,7 @@
         <v>108</v>
       </c>
       <c r="D103" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="2:4">
@@ -2832,7 +2865,7 @@
         <v>109</v>
       </c>
       <c r="D104" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="2:4">
@@ -2840,7 +2873,7 @@
         <v>110</v>
       </c>
       <c r="D105" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="106" spans="2:4">
@@ -2848,7 +2881,7 @@
         <v>111</v>
       </c>
       <c r="D106" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="107" spans="2:4">
@@ -2856,7 +2889,7 @@
         <v>112</v>
       </c>
       <c r="D107" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="108" spans="2:4">
@@ -2864,7 +2897,7 @@
         <v>113</v>
       </c>
       <c r="D108" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="2:4">
@@ -2872,7 +2905,7 @@
         <v>114</v>
       </c>
       <c r="D109" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="110" spans="2:4">
@@ -2880,7 +2913,7 @@
         <v>115</v>
       </c>
       <c r="D110" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="111" spans="2:4">
@@ -2888,7 +2921,7 @@
         <v>116</v>
       </c>
       <c r="D111" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="112" spans="2:4">
@@ -2896,7 +2929,7 @@
         <v>117</v>
       </c>
       <c r="D112" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113" spans="2:4">
@@ -2904,7 +2937,7 @@
         <v>118</v>
       </c>
       <c r="D113" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="114" spans="2:4">
@@ -2912,7 +2945,7 @@
         <v>119</v>
       </c>
       <c r="D114" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="115" spans="2:4">
@@ -2920,7 +2953,7 @@
         <v>120</v>
       </c>
       <c r="D115" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="116" spans="2:4">
@@ -2928,7 +2961,7 @@
         <v>121</v>
       </c>
       <c r="D116" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="117" spans="2:4">
@@ -2936,7 +2969,7 @@
         <v>122</v>
       </c>
       <c r="D117" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="118" spans="2:4">
@@ -2944,7 +2977,7 @@
         <v>123</v>
       </c>
       <c r="D118" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="119" spans="2:4">
@@ -2952,7 +2985,7 @@
         <v>124</v>
       </c>
       <c r="D119" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="120" spans="2:4">
@@ -2960,7 +2993,7 @@
         <v>125</v>
       </c>
       <c r="D120" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
     </row>
     <row r="121" spans="2:4">
@@ -2968,7 +3001,7 @@
         <v>126</v>
       </c>
       <c r="D121" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="122" spans="2:4">
@@ -2976,7 +3009,7 @@
         <v>127</v>
       </c>
       <c r="D122" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="123" spans="2:4">
@@ -2984,7 +3017,7 @@
         <v>128</v>
       </c>
       <c r="D123" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="124" spans="2:4">
@@ -2992,7 +3025,7 @@
         <v>129</v>
       </c>
       <c r="D124" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
     </row>
     <row r="125" spans="2:4">
@@ -3000,7 +3033,7 @@
         <v>130</v>
       </c>
       <c r="D125" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="126" spans="2:4">
@@ -3008,7 +3041,7 @@
         <v>131</v>
       </c>
       <c r="D126" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="127" spans="2:4">
@@ -3016,7 +3049,7 @@
         <v>132</v>
       </c>
       <c r="D127" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="128" spans="2:4">
@@ -3024,7 +3057,7 @@
         <v>133</v>
       </c>
       <c r="D128" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="129" spans="2:4">
@@ -3032,7 +3065,7 @@
         <v>134</v>
       </c>
       <c r="D129" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="130" spans="2:4">
@@ -3040,7 +3073,7 @@
         <v>135</v>
       </c>
       <c r="D130" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="131" spans="2:4">
@@ -3048,7 +3081,7 @@
         <v>136</v>
       </c>
       <c r="D131" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="132" spans="2:4">
@@ -3056,7 +3089,7 @@
         <v>137</v>
       </c>
       <c r="D132" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="133" spans="2:4">
@@ -3064,7 +3097,7 @@
         <v>138</v>
       </c>
       <c r="D133" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="134" spans="2:4">
@@ -3072,7 +3105,7 @@
         <v>139</v>
       </c>
       <c r="D134" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="135" spans="2:4">
@@ -3080,7 +3113,7 @@
         <v>140</v>
       </c>
       <c r="D135" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="136" spans="2:4">
@@ -3088,7 +3121,7 @@
         <v>141</v>
       </c>
       <c r="D136" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="137" spans="2:4">
@@ -3096,7 +3129,7 @@
         <v>142</v>
       </c>
       <c r="D137" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="138" spans="2:4">
@@ -3104,7 +3137,7 @@
         <v>143</v>
       </c>
       <c r="D138" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="139" spans="2:4">
@@ -3112,7 +3145,7 @@
         <v>144</v>
       </c>
       <c r="D139" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="140" spans="2:4">
@@ -3120,7 +3153,7 @@
         <v>145</v>
       </c>
       <c r="D140" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="141" spans="2:4">
@@ -3128,7 +3161,7 @@
         <v>146</v>
       </c>
       <c r="D141" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="142" spans="2:4">
@@ -3136,7 +3169,7 @@
         <v>147</v>
       </c>
       <c r="D142" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="143" spans="2:4">
@@ -3144,7 +3177,7 @@
         <v>148</v>
       </c>
       <c r="D143" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="144" spans="2:4">
@@ -3152,7 +3185,7 @@
         <v>149</v>
       </c>
       <c r="D144" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="145" spans="2:4">
@@ -3160,7 +3193,7 @@
         <v>150</v>
       </c>
       <c r="D145" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="146" spans="2:4">
@@ -3168,7 +3201,7 @@
         <v>151</v>
       </c>
       <c r="D146" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="147" spans="2:4">
@@ -3176,7 +3209,7 @@
         <v>152</v>
       </c>
       <c r="D147" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="148" spans="2:4">
@@ -3184,7 +3217,7 @@
         <v>153</v>
       </c>
       <c r="D148" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149" spans="2:4">
@@ -3192,7 +3225,7 @@
         <v>154</v>
       </c>
       <c r="D149" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="150" spans="2:4">
@@ -3200,7 +3233,7 @@
         <v>155</v>
       </c>
       <c r="D150" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="151" spans="2:4">
@@ -3208,7 +3241,7 @@
         <v>156</v>
       </c>
       <c r="D151" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="152" spans="2:4">
@@ -3216,7 +3249,7 @@
         <v>157</v>
       </c>
       <c r="D152" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="153" spans="2:4">
@@ -3224,7 +3257,7 @@
         <v>158</v>
       </c>
       <c r="D153" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="154" spans="2:4">
@@ -3232,7 +3265,7 @@
         <v>159</v>
       </c>
       <c r="D154" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="155" spans="2:4">
@@ -3240,7 +3273,7 @@
         <v>160</v>
       </c>
       <c r="D155" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="156" spans="2:4">
@@ -3248,7 +3281,7 @@
         <v>161</v>
       </c>
       <c r="D156" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="157" spans="2:4">
@@ -3256,7 +3289,7 @@
         <v>162</v>
       </c>
       <c r="D157" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="158" spans="2:4">
@@ -3264,7 +3297,7 @@
         <v>163</v>
       </c>
       <c r="D158" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="159" spans="2:4">
@@ -3272,7 +3305,7 @@
         <v>164</v>
       </c>
       <c r="D159" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="160" spans="2:4">
@@ -3280,7 +3313,7 @@
         <v>165</v>
       </c>
       <c r="D160" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="161" spans="2:4">
@@ -3288,7 +3321,7 @@
         <v>166</v>
       </c>
       <c r="D161" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="162" spans="2:4">
@@ -3296,7 +3329,7 @@
         <v>167</v>
       </c>
       <c r="D162" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="163" spans="2:4">
@@ -3304,7 +3337,7 @@
         <v>168</v>
       </c>
       <c r="D163" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="164" spans="2:4">
@@ -3312,7 +3345,7 @@
         <v>169</v>
       </c>
       <c r="D164" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="165" spans="2:4">
@@ -3320,7 +3353,7 @@
         <v>170</v>
       </c>
       <c r="D165" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="166" spans="2:4">
@@ -3328,7 +3361,7 @@
         <v>171</v>
       </c>
       <c r="D166" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
     </row>
     <row r="167" spans="2:4">
@@ -3336,7 +3369,7 @@
         <v>172</v>
       </c>
       <c r="D167" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="168" spans="2:4">
@@ -3344,7 +3377,7 @@
         <v>173</v>
       </c>
       <c r="D168" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="169" spans="2:4">
@@ -3352,7 +3385,7 @@
         <v>174</v>
       </c>
       <c r="D169" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="170" spans="2:4">
@@ -3360,7 +3393,7 @@
         <v>175</v>
       </c>
       <c r="D170" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="171" spans="2:4">
@@ -3368,7 +3401,7 @@
         <v>176</v>
       </c>
       <c r="D171" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="172" spans="2:4">
@@ -3376,7 +3409,7 @@
         <v>177</v>
       </c>
       <c r="D172" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
     </row>
     <row r="173" spans="2:4">
@@ -3384,7 +3417,7 @@
         <v>178</v>
       </c>
       <c r="D173" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
     </row>
     <row r="174" spans="2:4">
@@ -3392,7 +3425,7 @@
         <v>179</v>
       </c>
       <c r="D174" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="175" spans="2:4">
@@ -3400,7 +3433,7 @@
         <v>180</v>
       </c>
       <c r="D175" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="176" spans="2:4">
@@ -3408,7 +3441,7 @@
         <v>181</v>
       </c>
       <c r="D176" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="177" spans="2:4">
@@ -3416,7 +3449,7 @@
         <v>182</v>
       </c>
       <c r="D177" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="178" spans="2:4">
@@ -3424,7 +3457,7 @@
         <v>183</v>
       </c>
       <c r="D178" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="179" spans="2:4">
@@ -3432,7 +3465,7 @@
         <v>184</v>
       </c>
       <c r="D179" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="180" spans="2:4">
@@ -3440,7 +3473,7 @@
         <v>185</v>
       </c>
       <c r="D180" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="181" spans="2:4">
@@ -3448,16 +3481,13 @@
         <v>186</v>
       </c>
       <c r="D181" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
     </row>
     <row r="182" spans="2:4">
       <c r="B182" t="s">
         <v>187</v>
       </c>
-      <c r="D182" t="s">
-        <v>459</v>
-      </c>
     </row>
     <row r="183" spans="2:4">
       <c r="B183" t="s">
@@ -3929,7 +3959,319 @@
         <v>281</v>
       </c>
     </row>
+    <row r="277" spans="2:2">
+      <c r="B277" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" t="s">
+        <v>291</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="694dc5982778b78571808a8a0bab1175">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac46d101c58d29857918b5bc3d6299d1" ns2:_="" ns3:_="">
+    <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+    <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1D87070-11A7-4F44-9687-4AF3FB753E31}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4334CFBF-393E-4FA4-A1B4-7D801A90DE1C}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D37F41B-3547-4D96-B299-8A2BE12CB32F}"/>
 </file>